--- a/Metropolitan Roads/31659/res_ITP-163-RAIL-SSB-Rail Delineation Permanent Fencing Rev 0.xlsx
+++ b/Metropolitan Roads/31659/res_ITP-163-RAIL-SSB-Rail Delineation Permanent Fencing Rev 0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Metropolitan Roads\31659\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6E5D05-9F89-47E6-AE42-03F4BD63F7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F85A85-4744-4566-860F-3DEB91498581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="945" windowWidth="29070" windowHeight="19785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8760" yWindow="1305" windowWidth="29070" windowHeight="19785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="127">
   <si>
     <t>type</t>
   </si>
@@ -113,64 +113,310 @@
     <t>1.1 Non Dependent</t>
   </si>
   <si>
-    <t>1.2 Non Dependent</t>
-  </si>
-  <si>
     <t>Revision Number: 0</t>
   </si>
   <si>
-    <t>Revision Date: 1/05/2024</t>
-  </si>
-  <si>
-    <t>ITP approved for use by: Victor Mira</t>
-  </si>
-  <si>
-    <t>Preliminaries - Materials</t>
-  </si>
-  <si>
-    <t>1.3 Non Dependent</t>
-  </si>
-  <si>
-    <t>1.4 Non Dependent</t>
-  </si>
-  <si>
-    <t>ITP Description: SSB-Precast Super T Installaton</t>
-  </si>
-  <si>
-    <t>Discipline (e.g. CIV/STR/RAIL): 154-STR</t>
-  </si>
-  <si>
-    <t>ITP created by: Dan O'Brien</t>
-  </si>
-  <si>
-    <t>Document Title: ITP-154-STR-SSB-Precast Super T Installation</t>
-  </si>
-  <si>
-    <t>3.1 Precast Elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCEPTANCE CRITERIA: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFERENCE: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">METHOD: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREQUENCY: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATEGORY: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESPONSIBILITY: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERIFYING DOCUMENTS: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference: </t>
+    <t>ITP-163-RAIL-SSB-Rail Delineation Permanent Fencing Rev 0</t>
+  </si>
+  <si>
+    <t>ITP-163-RAIL-SSB-Rail Delineation Permanent Fencing</t>
+  </si>
+  <si>
+    <t>ITP Description: SSB-Rail Delineation permanent fencing</t>
+  </si>
+  <si>
+    <t>Document Title: ITP-163-RAIL-SSB-Rail Delineation permanent fencing</t>
+  </si>
+  <si>
+    <t>Discipline (e.g. CIV/STR/RAIL): 163-RAIL</t>
+  </si>
+  <si>
+    <t>Revision Date: 10/05/2024</t>
+  </si>
+  <si>
+    <t>ITP created by: Yasna Nicker</t>
+  </si>
+  <si>
+    <t>ITP approved for use by: VM</t>
+  </si>
+  <si>
+    <t>Reference: IFC Drawings</t>
+  </si>
+  <si>
+    <t>Preliminaries-Materials</t>
+  </si>
+  <si>
+    <t>2.1 Concrete Toe Beam and Head Beam</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Minimum of 60 MPa concrete shall be used as per IFC drawings.</t>
+  </si>
+  <si>
+    <t>METHOD: Document Review</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each Mix</t>
+  </si>
+  <si>
+    <t>CATEGORY: HP</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: SE/Site Supervisor</t>
+  </si>
+  <si>
+    <t>2.2 Steel components</t>
+  </si>
+  <si>
+    <t>FREQUENCY: All elements</t>
+  </si>
+  <si>
+    <t>CATEGORY: IP</t>
+  </si>
+  <si>
+    <t>FREQUENCY:</t>
+  </si>
+  <si>
+    <t>3.1 Excavation of toe and head beam</t>
+  </si>
+  <si>
+    <t>METHOD: Visual</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: This ITP</t>
+  </si>
+  <si>
+    <t>4.1 Survey Set-out</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each element</t>
+  </si>
+  <si>
+    <t>5.1 Ground Conditions</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All post foundations/ beams to be inspected by the site team prior to installing the posts. All foundations are to be free of water and loose material.</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each post</t>
+  </si>
+  <si>
+    <t>5.2 Toe and Head Beam Formwork Design and Construction</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each type of element</t>
+  </si>
+  <si>
+    <t>5.5 Reinforcement Placement (Toe Beam and Head Beam Steel)</t>
+  </si>
+  <si>
+    <t>5.3 Toe Beam and Head Beam Foundation</t>
+  </si>
+  <si>
+    <t>METHOD: Measure</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each footing</t>
+  </si>
+  <si>
+    <t>Concrete Toe Beam and Head Beam</t>
+  </si>
+  <si>
+    <t>METHOD: Test</t>
+  </si>
+  <si>
+    <t>5.3 Post Installation</t>
+  </si>
+  <si>
+    <t>5.4 Fence Panel Installation</t>
+  </si>
+  <si>
+    <t>5.5 Bracing</t>
+  </si>
+  <si>
+    <t>6.1 Fence Height and Track Clearance</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each lot</t>
+  </si>
+  <si>
+    <t>Preliminaries-Documentations</t>
+  </si>
+  <si>
+    <t>Pre-construction / Pre-installation Activities</t>
+  </si>
+  <si>
+    <t>Post-construction / Post-installation Activities</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: Certificate of Compliance</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: Supplier Certificate of Compliance</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings AS41000, AS1163</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All Steel must comply with Australian Standards.</t>
+  </si>
+  <si>
+    <t>○ Steel section sizes must be checked on site.</t>
+  </si>
+  <si>
+    <t>METHOD: Document review, Visual and Measure</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Excavation for beams must not undermine track and comply with PTDT requirements.</t>
+  </si>
+  <si>
+    <t>○ Excavation must use Non Distructive Digging in the rail corridor</t>
+  </si>
+  <si>
+    <t>○ Follow asset owners guidelines for work around their service.</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Survey to set out the following but not limited to: existing services, post locations, refuge bays</t>
+  </si>
+  <si>
+    <t>○ Offset checked against the running edge prior to installation of posts.</t>
+  </si>
+  <si>
+    <t>○ Engineer to verify alignment of posts using string line or equivalent.</t>
+  </si>
+  <si>
+    <t>METHOD: Measure, Visual inspect</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Surveyor, SE/PE/SPE</t>
+  </si>
+  <si>
+    <t>Construction / Installation Activities</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings 614.04, 614.05, 614.06</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Designed and constructed in such a manner so it can be removed without damage to the concrete.</t>
+  </si>
+  <si>
+    <t>○ Formwork to be rigid, watertight, braced, tied together &amp; selected to achieve the required surface finish.</t>
+  </si>
+  <si>
+    <t>○ Formwork shall not be placed where steel &amp; fixtures cannot be inspected.</t>
+  </si>
+  <si>
+    <t>METHOD: Document Review, Visual, Measure</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Temporary Works Designer, Proof Engineer, SE/PE/SPE</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: This ITP Signed Off</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings 611.06, 611.09, 611.10, 611.11, 611.12</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: The correct reinforcement grade, quantity, size, orientation, location and spacing as shown on the structural drawings.</t>
+  </si>
+  <si>
+    <t>○ Projecting reinforcement is the correct length and location.</t>
+  </si>
+  <si>
+    <t>○ The reinforcement surface condition is free from dirt, debris and damage.</t>
+  </si>
+  <si>
+    <t>○ Minimum cover as shown on the structural drawings for each face has been achieved (including tie wire locations).</t>
+  </si>
+  <si>
+    <t>METHOD: Measure, Visual</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Foreman, SE/PE/SPE</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Toe Beam Dimensions (Fencing Post Foundation)</t>
+  </si>
+  <si>
+    <t>Head Beam Dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 600mm Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 600mm Diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 2405mm c/c Spacing</t>
+  </si>
+  <si>
+    <t>REFERENCE: Site Sampling &amp; Testing Procedure 610.16 (b)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Concrete cast in one continuous operation to be tested at a frequency as shown below:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 0m³ to 10m³ = 1 sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 10m³ to 25m³ = 2 samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 25m³ to 50m³ = 3 samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 50m³ to 100m³ = 4 samples + 2 no. VPV cylinders.</t>
+  </si>
+  <si>
+    <t>– For each additional 50m³ and additional sample shall be taken.</t>
+  </si>
+  <si>
+    <t>– Where IFC nominates minimum strength development, ensure strength is verified by additional cylinder or other approved method (such as maturity testing).</t>
+  </si>
+  <si>
+    <t>– Each sample shall consist of 1 no. slump or spread test and 3 no. compressive strength cylinders minimum.</t>
+  </si>
+  <si>
+    <t>– Compressive strength cylinders = 1 no. 7 day strength, 2 no. 28 day strength.</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Concrete Tester, Foreman, SE/PE/SPE</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: This ITP Signed Off, Concrete Pour Record</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Maximum fence post spacing to be 2405mm</t>
+  </si>
+  <si>
+    <t>○ Vertical Tolerance: ±20mm from the design line.</t>
+  </si>
+  <si>
+    <t>○ Max. post height 1800mm above ground level</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Galvanised fence panels 1820x2405x55 to be fixed to fence post with 25mm U-clip, using TEK screw. A minimum of 2 brackets must be used and fastened to each post.</t>
+  </si>
+  <si>
+    <t>○ Minimum ground clearance under panels 50mm</t>
+  </si>
+  <si>
+    <t>○ Maximum ground clearance under panles 150mm</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: 48.3 X 4 CHS brace at end bays and corners fixed each end via approved proprietary post and rail clamps.</t>
+  </si>
+  <si>
+    <t>○ Bracing to be installed on both sides of the fence at the fence corners</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Posts are to be checked for verticality and ensure offset is not less than required from near face of post to centreline of track or as shown on alignment drawings.</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
   </si>
 </sst>
 </file>
@@ -322,7 +568,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +781,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,7 +957,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -724,6 +982,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1089,7 +1356,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="246.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="232.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="66.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1126,7 +1393,9 @@
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
@@ -1134,7 +1403,9 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1158,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1166,7 +1437,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1174,7 +1445,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1182,7 +1453,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1190,7 +1461,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1198,7 +1469,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1206,7 +1477,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1222,79 +1493,79 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
+      <c r="A14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>44</v>
+      <c r="A15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>30</v>
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>44</v>
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>31</v>
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>44</v>
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>29</v>
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>36</v>
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>38</v>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1306,11 +1577,11 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>37</v>
+      <c r="A24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1326,7 +1597,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1342,39 +1613,39 @@
         <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>41</v>
+      <c r="A30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>8</v>
+      <c r="A31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>42</v>
+      <c r="B32" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1389,15 +1660,1679 @@
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>43</v>
+      <c r="B34" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>9</v>
       </c>
     </row>
